--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2514.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2514.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.629705067588877</v>
+        <v>1.618329644203186</v>
       </c>
       <c r="B1">
-        <v>3.693557122254242</v>
+        <v>2.563636541366577</v>
       </c>
       <c r="C1">
-        <v>3.26961524213043</v>
+        <v>2.819139957427979</v>
       </c>
       <c r="D1">
-        <v>2.169016460271659</v>
+        <v>3.158385753631592</v>
       </c>
       <c r="E1">
-        <v>2.366922784728462</v>
+        <v>3.162692070007324</v>
       </c>
     </row>
   </sheetData>
